--- a/ContactCenter/trunk/kettle/MAXDAT/implementation/FLHK/data/configuration.xlsx
+++ b/ContactCenter/trunk/kettle/MAXDAT/implementation/FLHK/data/configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="11280" windowHeight="7725" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="11280" windowHeight="7725" tabRatio="762" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="573">
   <si>
     <t>PROJECT_NAME</t>
   </si>
@@ -2064,6 +2064,12 @@
   </si>
   <si>
     <t>CCM01.FixProb_IT_Emerg</t>
+  </si>
+  <si>
+    <t>INCLUDE_IN_REPORTS_FLAG</t>
+  </si>
+  <si>
+    <t>unit_of_work_category</t>
   </si>
 </sst>
 </file>
@@ -2482,10 +2488,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,7 +2509,7 @@
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>207</v>
       </c>
@@ -2537,8 +2543,11 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2561,8 +2570,11 @@
       <c r="K2" s="17">
         <v>401768</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2585,8 +2597,11 @@
       <c r="K3" s="17">
         <v>401768</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2609,8 +2624,11 @@
       <c r="K4" s="17">
         <v>401768</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2634,6 +2652,9 @@
       </c>
       <c r="K5" s="17">
         <v>401768</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2862,7 @@
   </sheetPr>
   <dimension ref="A1:S355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -15125,10 +15146,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15139,7 +15160,7 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>209</v>
       </c>
@@ -15155,8 +15176,11 @@
       <c r="E1" s="11" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -15172,20 +15196,23 @@
       <c r="E2" s="11" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
